--- a/Subtask5/03-eli-dl-ap-ep-activities/04-SHACL/Activity-Shapes.xlsx
+++ b/Subtask5/03-eli-dl-ap-ep-activities/04-SHACL/Activity-Shapes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="206">
   <si>
     <t xml:space="preserve">Shapes URI</t>
   </si>
@@ -119,6 +119,12 @@
     <t xml:space="preserve">sh:targetClass</t>
   </si>
   <si>
+    <t xml:space="preserve">sh:target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:select(subjectColumn="D")</t>
+  </si>
+  <si>
     <t xml:space="preserve">rdfs:label@fr</t>
   </si>
   <si>
@@ -155,7 +161,7 @@
     <t xml:space="preserve">sh:IRI</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9][0-9][0-9][0-9]+/[0-9a-zA-Z]*+/[0-9a-zA-Z]*$"</t>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}/[0-9a-zA-Z]+/[0-9a-zA-Z]*$"</t>
   </si>
   <si>
     <t xml:space="preserve">true</t>
@@ -167,7 +173,15 @@
     <t xml:space="preserve">epsh:Reading_Shape</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/.*$"</t>
+    <t xml:space="preserve">PREFIX eli-dl: &lt;http://data.europa.eu/eli/eli-draft-legislation-ontology#&gt;
+PREFIX elidl-ep: &lt;http://data.europarl.europa.eu/ontology/elidl-ep#&gt;
+SELECT ?this WHERE {
+ ?this a eli-dl:LegislativeActivity .
+ ?this elidl-ep:activityType &lt;http://data.europarl.europa.eu/authority/activity-type/READING_I&gt; .
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}/[0-9a-zA-Z]+/[0-9a-zA-Z]+/event/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">epsh:Procedure_Creation_Shape</t>
@@ -176,48 +190,109 @@
     <t xml:space="preserve">epsh:MainDossier_Shape</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsh:ActivityParticipationProcess_Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/.*$"</t>
+    <t xml:space="preserve">PREFIX eli-dl: &lt;http://data.europa.eu/eli/eli-draft-legislation-ontology#&gt;
+PREFIX elidl-ep: &lt;http://data.europarl.europa.eu/ontology/elidl-ep#&gt;
+SELECT ?this WHERE {
+ ?this a eli-dl:LegislativeActivity .
+ ?this elidl-ep:activityType &lt;http://data.europarl.europa.eu/authority/activity-type/MAIN_DOSSIER&gt; .
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}/[0-9a-zA-Z]+/[0-9a-zA-Z]+/event/reading_.+/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">epsh:ActivityParticipation_Shape</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*$</t>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/.*activity-participation.*"</t>
   </si>
   <si>
     <t xml:space="preserve">epsh:Tabling_draft_report_Shape</t>
   </si>
   <si>
+    <t xml:space="preserve">PREFIX eli-dl: &lt;http://data.europa.eu/eli/eli-draft-legislation-ontology#&gt;
+PREFIX elidl-ep: &lt;http://data.europarl.europa.eu/ontology/elidl-ep#&gt;
+SELECT ?this WHERE {
+ ?this a eli-dl:LegislativeActivity .
+ ?this elidl-ep:activityType &lt;http://data.europarl.europa.eu/authority/activity-type/TABLING_DRAFT_REPORT&gt; .
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}/[0-9a-zA-Z]*/[0-9a-zA-Z]*/event/reading_.*/main-dossier_[0-9]/.*$"</t>
+  </si>
+  <si>
     <t xml:space="preserve">epsh:AppRapporteur_Shape</t>
   </si>
   <si>
+    <t xml:space="preserve">PREFIX eli-dl: &lt;http://data.europa.eu/eli/eli-draft-legislation-ontology#&gt;
+PREFIX elidl-ep: &lt;http://data.europarl.europa.eu/ontology/elidl-ep#&gt;
+SELECT ?this WHERE {
+ ?this a eli-dl:LegislativeActivity .
+ ?this elidl-ep:activityType &lt;http://data.europarl.europa.eu/authority/activity-type/NMCP&gt; .
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve">epsh:TablingAmendment_Shape</t>
   </si>
   <si>
+    <t xml:space="preserve">PREFIX eli-dl: &lt;http://data.europa.eu/eli/eli-draft-legislation-ontology#&gt;
+PREFIX elidl-ep: &lt;http://data.europarl.europa.eu/ontology/elidl-ep#&gt;
+SELECT ?this WHERE {
+ ?this a eli-dl:LegislativeActivity .
+ ?this elidl-ep:activityType &lt;http://data.europarl.europa.eu/authority/activity-type/COMMITTEE_AMENDMENT&gt; .
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve">epsh:CommitteDebate_Shape</t>
   </si>
   <si>
+    <t xml:space="preserve">PREFIX eli-dl: &lt;http://data.europa.eu/eli/eli-draft-legislation-ontology#&gt;
+PREFIX elidl-ep: &lt;http://data.europarl.europa.eu/ontology/elidl-ep#&gt;
+SELECT ?this WHERE {
+ ?this a eli-dl:LegislativeActivity .
+ ?this elidl-ep:activityType &lt;http://data.europarl.europa.eu/authority/activity-type/COMMITTEE_DEBATE&gt; .
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve">epsh:CommitteeVote_Shape</t>
   </si>
   <si>
+    <t xml:space="preserve">PREFIX eli-dl: &lt;http://data.europa.eu/eli/eli-draft-legislation-ontology#&gt;
+PREFIX elidl-ep: &lt;http://data.europarl.europa.eu/ontology/elidl-ep#&gt;
+SELECT ?this WHERE {
+ ?this a eli-dl:LegislativeActivity .
+ ?this elidl-ep:activityType &lt;http://data.europarl.europa.eu/authority/activity-type/COMMITTEE_VOTE&gt; .
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve">epsh:VoteResult_Shape</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*/result$</t>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}/[0-9a-zA-Z]*/[0-9a-zA-Z]*/event/reading_.*/main-dossier_[0-9]/.*/result$"</t>
   </si>
   <si>
     <t xml:space="preserve">epsh:PlenaryDossier_Shape</t>
   </si>
   <si>
+    <t xml:space="preserve">PREFIX eli-dl: &lt;http://data.europa.eu/eli/eli-draft-legislation-ontology#&gt;
+PREFIX elidl-ep: &lt;http://data.europarl.europa.eu/ontology/elidl-ep#&gt;
+SELECT ?this WHERE {
+ ?this a eli-dl:LegislativeActivity .
+ ?this elidl-ep:activityType &lt;http://data.europarl.europa.eu/authority/activity-type/PLENARY_DOSSIER&gt; .
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve">epsh:ConsolidationDossier_Shape</t>
   </si>
   <si>
+    <t xml:space="preserve">PREFIX eli-dl: &lt;http://data.europa.eu/eli/eli-draft-legislation-ontology#&gt;
+PREFIX elidl-ep: &lt;http://data.europarl.europa.eu/ontology/elidl-ep#&gt;
+SELECT ?this WHERE {
+ ?this a eli-dl:LegislativeActivity .
+ ?this elidl-ep:activityType &lt;http://data.europarl.europa.eu/authority/activity-type/CONSOLIDATION&gt; .
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve">epsh:LegalBasisTFEU_Shape</t>
   </si>
   <si>
@@ -404,7 +479,7 @@
     <t xml:space="preserve">legal-resource-type</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/legislative-act-type/.*$"</t>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/legal-resource-type/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">eli-dl:current_stage</t>
@@ -458,6 +533,12 @@
     <t xml:space="preserve">eli-dl:consists_of</t>
   </si>
   <si>
+    <t xml:space="preserve">(
+  [sh:node epsh:Reading_Shape]
+  [sh:node epsh:Procedure_Creation_Shape]
+)</t>
+  </si>
+  <si>
     <t xml:space="preserve">elidl-ep:hasActivityParticipation</t>
   </si>
   <si>
@@ -476,13 +557,20 @@
     <t xml:space="preserve">elidl-ep:activityId</t>
   </si>
   <si>
+    <t xml:space="preserve">(
+  [sh:node epsh:MainDossier_Shape]
+  [sh:node epsh:PlenaryDossier_Shape]
+  [sh:node epsh:ConsolidationDossier_Shape]
+)</t>
+  </si>
+  <si>
     <t xml:space="preserve">eli-dl:based_on_a_realization_of</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/doc/[a-zA-Z0-9]*+/.*$"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elidl-ep:hasBaseBas_1</t>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}/[0-9a-zA-Z]+/[0-9a-zA-Z]+/doc/.*/.*$"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elidl-ep:hasBaseBas_I</t>
   </si>
   <si>
     <t xml:space="preserve">epsh:InvolvedWork_Shape</t>
@@ -503,7 +591,7 @@
     <t xml:space="preserve">elidl-ep:activityNature</t>
   </si>
   <si>
-    <t xml:space="preserve">http://data.europarl.europa.eu/authority/nature/.*$</t>
+    <t xml:space="preserve">http://data.europarl.europa.eu/authority/activity-nature/.*$</t>
   </si>
   <si>
     <t xml:space="preserve">eli-dl:occured_at_stage</t>
@@ -521,6 +609,15 @@
     <t xml:space="preserve">elidl-ep:amendmentDeadlineDate</t>
   </si>
   <si>
+    <t xml:space="preserve">(
+  [sh:node epsh:Tabling_draft_report_Shape]
+  [sh:node epsh:AppRapporteur_Shape]
+  [sh:node epsh:TablingAmendment_Shape]
+  [sh:node epsh:CommitteDebate_Shape]
+  [sh:node epsh:CommitteeVote_Shape]
+)</t>
+  </si>
+  <si>
     <t xml:space="preserve">eli-dl:hasActivityParticipation</t>
   </si>
   <si>
@@ -566,7 +663,7 @@
     <t xml:space="preserve">elidl-ep:voteResult</t>
   </si>
   <si>
-    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/vote-result/.*$"</t>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/vote-result/.+$"</t>
   </si>
   <si>
     <t xml:space="preserve">elidl-ep:voteAbstention</t>
@@ -594,9 +691,6 @@
   </si>
   <si>
     <t xml:space="preserve">Constraints on PlenaryDossier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elidl-ep:activity_type</t>
   </si>
   <si>
     <t xml:space="preserve">eli-dl:activity_start_date</t>
@@ -612,7 +706,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -699,6 +793,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -763,7 +862,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -828,8 +927,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -856,8 +955,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -938,27 +1049,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="1" sqref="O29:O31 A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="B115 E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="23.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="111.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="80.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="23.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="111.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="24.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -966,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -976,10 +1089,12 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
@@ -989,10 +1104,12 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
@@ -1002,10 +1119,12 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
@@ -1015,10 +1134,12 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>2</v>
       </c>
@@ -1028,10 +1149,12 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>2</v>
       </c>
@@ -1041,10 +1164,12 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>15</v>
       </c>
@@ -1052,23 +1177,29 @@
         <v>16</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1076,16 +1207,18 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" s="11" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
@@ -1097,32 +1230,34 @@
       <c r="C13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="M13" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
@@ -1132,7 +1267,7 @@
       <c r="C14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1144,10 +1279,10 @@
       <c r="G14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="15" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="14" t="s">
@@ -1156,341 +1291,389 @@
       <c r="K14" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="120.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="D16" s="1" t="str">
+        <f aca="false">CONCATENATE(A16,"-target")</f>
+        <v>epsh:Reading_Shape-target</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
+      <c r="M16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="119.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="D18" s="1" t="str">
+        <f aca="false">CONCATENATE(A18,"-target")</f>
+        <v>epsh:MainDossier_Shape-target</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
+      <c r="D20" s="1" t="str">
+        <f aca="false">CONCATENATE(A20,"-target")</f>
+        <v>epsh:Tabling_draft_report_Shape-target</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="128.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="D21" s="1" t="str">
+        <f aca="false">CONCATENATE(A21,"-target")</f>
+        <v>epsh:AppRapporteur_Shape-target</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f aca="false">CONCATENATE(A22,"-target")</f>
+        <v>epsh:TablingAmendment_Shape-target</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f aca="false">CONCATENATE(A23,"-target")</f>
+        <v>epsh:CommitteDebate_Shape-target</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f aca="false">CONCATENATE(A24,"-target")</f>
+        <v>epsh:CommitteeVote_Shape-target</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f aca="false">CONCATENATE(A26,"-target")</f>
+        <v>epsh:PlenaryDossier_Shape-target</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="D27" s="1" t="str">
+        <f aca="false">CONCATENATE(A27,"-target")</f>
+        <v>epsh:ConsolidationDossier_Shape-target</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
+      <c r="L27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="J29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>46</v>
+      <c r="K29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1501,22 +1684,9 @@
     <hyperlink ref="C5" r:id="rId4" display="http://data.europarl.europa.eu/resource/"/>
     <hyperlink ref="C6" r:id="rId5" display="http://data.europarl.europa.eu/ontology/elidl-ep#"/>
     <hyperlink ref="C7" r:id="rId6" display="http://data.europa.eu/eli/eli-draft-legislation-ontology#"/>
-    <hyperlink ref="D14" r:id="rId7" display="rdfs:label@fr"/>
-    <hyperlink ref="E14" r:id="rId8" display="rdfs:label@en"/>
-    <hyperlink ref="G14" r:id="rId9" display="rdfs:comment@fr"/>
-    <hyperlink ref="I15" r:id="rId10" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9][0-9][0-9][0-9]+/[0-9a-zA-Z]*+/[0-9a-zA-Z]*$&quot;"/>
-    <hyperlink ref="I17" r:id="rId11" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/.*$&quot;"/>
-    <hyperlink ref="I18" r:id="rId12" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/.*$&quot;"/>
-    <hyperlink ref="I19" r:id="rId13" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/.*$&quot;"/>
-    <hyperlink ref="I20" r:id="rId14" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*$"/>
-    <hyperlink ref="I21" r:id="rId15" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*$"/>
-    <hyperlink ref="I22" r:id="rId16" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*$"/>
-    <hyperlink ref="I23" r:id="rId17" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*$"/>
-    <hyperlink ref="I24" r:id="rId18" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*$"/>
-    <hyperlink ref="I25" r:id="rId19" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*$"/>
-    <hyperlink ref="I26" r:id="rId20" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*/result$"/>
-    <hyperlink ref="I27" r:id="rId21" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/.*$&quot;"/>
-    <hyperlink ref="I28" r:id="rId22" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/.*$&quot;"/>
+    <hyperlink ref="F14" r:id="rId7" display="rdfs:label@fr"/>
+    <hyperlink ref="G14" r:id="rId8" display="rdfs:label@en"/>
+    <hyperlink ref="I14" r:id="rId9" display="rdfs:comment@fr"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1533,15 +1703,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U123"/>
+  <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="O29" activeCellId="0" sqref="O29:O31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="12" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B115" activeCellId="0" sqref="B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
@@ -1552,15 +1722,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="56.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="53.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="66.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="34.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="28.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="28.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,7 +1826,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -1685,67 +1855,67 @@
     </row>
     <row r="11" s="13" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="U11" s="13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,69 +1923,69 @@
         <v>30</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="U12" s="18" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="T13" s="21"/>
     </row>
@@ -1825,19 +1995,19 @@
         <v>epsh:P14</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
@@ -1847,13 +2017,13 @@
         <v>epsh:P15</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>1</v>
@@ -1862,10 +2032,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,13 +2044,13 @@
         <v>epsh:P16</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>1</v>
@@ -1889,12 +2059,12 @@
         <v>1</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="R16" s="16"/>
+        <v>122</v>
+      </c>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="str">
@@ -1902,13 +2072,13 @@
         <v>epsh:P17</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>1</v>
@@ -1917,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,13 +2096,13 @@
         <v>epsh:P18</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>1</v>
@@ -1941,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,13 +2123,13 @@
         <v>epsh:P19</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>1</v>
@@ -1968,25 +2138,25 @@
         <v>1</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A20))</f>
         <v>epsh:P20</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>0</v>
@@ -1995,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,13 +2177,13 @@
         <v>epsh:P21</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>1</v>
@@ -2022,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,13 +2204,13 @@
         <v>epsh:P22</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>1</v>
@@ -2049,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,17 +2231,17 @@
         <v>epsh:P23</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
       <c r="L23" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,13 +2250,13 @@
         <v>epsh:P24</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>1</v>
@@ -2095,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,18 +2277,18 @@
         <v>epsh:P25</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="str">
@@ -2126,18 +2296,18 @@
         <v>epsh:P26</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="R26" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="R26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="str">
@@ -2145,28 +2315,28 @@
         <v>epsh:P27</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,10 +2345,10 @@
         <v>epsh:P28</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>0</v>
@@ -2187,86 +2357,73 @@
         <v>1</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A29))</f>
         <v>epsh:P29</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A30))</f>
         <v>epsh:P30</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N30" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="32" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T32" s="21"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A33))</f>
+        <v>epsh:P33</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A31))</f>
-        <v>epsh:P31</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N31" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="T33" s="21"/>
+      <c r="G33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="str">
@@ -2274,19 +2431,22 @@
         <v>epsh:P34</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L34" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,10 +2455,10 @@
         <v>epsh:P35</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>1</v>
@@ -2307,209 +2467,193 @@
         <v>1</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A36))</f>
         <v>epsh:P36</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A37))</f>
         <v>epsh:P37</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N37" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="O37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A38))</f>
         <v>epsh:P38</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>166</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N38" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="O38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A39))</f>
-        <v>epsh:P39</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N39" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A40))</f>
-        <v>epsh:P40</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R40" s="0" t="s">
-        <v>152</v>
-      </c>
+      <c r="B39" s="22"/>
+    </row>
+    <row r="40" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="T40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A41))</f>
         <v>epsh:P41</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>153</v>
+      <c r="B41" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J41" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="L41" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="22"/>
-    </row>
-    <row r="43" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="T43" s="21"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A44))</f>
-        <v>epsh:P44</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A45))</f>
-        <v>epsh:P45</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M45" s="0" t="s">
+      <c r="A42" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A42))</f>
+        <v>epsh:P42</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="0" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="T48" s="21"/>
+      <c r="M42" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="T45" s="21"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A46))</f>
+        <v>epsh:P46</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A47))</f>
+        <v>epsh:P47</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A48))</f>
+        <v>epsh:P48</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="str">
@@ -2517,10 +2661,10 @@
         <v>epsh:P49</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>1</v>
@@ -2529,33 +2673,35 @@
         <v>1</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M49" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A50))</f>
         <v>epsh:P50</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L50" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="R50" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="str">
@@ -2563,19 +2709,22 @@
         <v>epsh:P51</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H51" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L51" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,22 +2733,19 @@
         <v>epsh:P52</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H52" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L52" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,240 +2754,165 @@
         <v>epsh:P53</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A54))</f>
         <v>epsh:P54</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>161</v>
+      <c r="B54" s="0" t="s">
+        <v>154</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A55))</f>
         <v>epsh:P55</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>163</v>
+      <c r="B55" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J55" s="0" t="s">
+        <v>56</v>
+      </c>
       <c r="L55" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A56))</f>
-        <v>epsh:P56</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A57))</f>
-        <v>epsh:P57</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L57" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N57" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="O57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R57" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="T57" s="21"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A58))</f>
         <v>epsh:P58</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N58" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="O58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R58" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A59))</f>
         <v>epsh:P59</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N59" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="O59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R59" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A60))</f>
         <v>epsh:P60</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N60" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R60" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A61))</f>
         <v>epsh:P61</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N61" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R61" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A62))</f>
-        <v>epsh:P62</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N62" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R62" s="0" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="64" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="20" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="T64" s="21"/>
     </row>
@@ -2851,19 +2922,22 @@
         <v>epsh:P65</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H65" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L65" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,19 +2946,16 @@
         <v>epsh:P66</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M66" s="0" t="s">
-        <v>112</v>
+        <v>45</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,19 +2964,22 @@
         <v>epsh:P67</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H67" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L67" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,50 +2988,41 @@
         <v>epsh:P68</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M68" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="T71" s="21"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A72))</f>
-        <v>epsh:P72</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L72" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M72" s="0" t="s">
-        <v>112</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A69))</f>
+        <v>epsh:P69</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R69" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="T72" s="21"/>
     </row>
     <row r="73" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="str">
@@ -2965,16 +3030,19 @@
         <v>epsh:P73</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,22 +3051,19 @@
         <v>epsh:P74</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H74" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L74" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M74" s="0" t="s">
-        <v>121</v>
+        <v>45</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,39 +3072,60 @@
         <v>epsh:P75</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A76))</f>
         <v>epsh:P76</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A77))</f>
+        <v>epsh:P77</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="79" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="20" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="T79" s="21"/>
     </row>
@@ -3049,19 +3135,19 @@
         <v>epsh:P80</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,19 +3156,19 @@
         <v>epsh:P81</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,62 +3177,47 @@
         <v>epsh:P82</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M82" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="T85" s="21"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A86))</f>
+        <v>epsh:P86</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" s="0" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A83))</f>
-        <v>epsh:P83</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R83" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A84))</f>
-        <v>epsh:P84</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L84" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="T86" s="21"/>
+      <c r="M86" s="0" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="str">
@@ -3154,180 +3225,192 @@
         <v>epsh:P87</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M87" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A88))</f>
         <v>epsh:P88</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G88" s="1" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R88" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A89))</f>
         <v>epsh:P89</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J89" s="0" t="s">
+        <v>69</v>
+      </c>
       <c r="L89" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M89" s="0" t="s">
-        <v>121</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A90))</f>
+        <v>epsh:P90</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R90" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="92" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="20" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="T92" s="21"/>
     </row>
-    <row r="93" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A93))</f>
         <v>epsh:P93</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G93" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="H93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A94))</f>
         <v>epsh:P94</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G94" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="H94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R94" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="R94" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A95))</f>
         <v>epsh:P95</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G95" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="H95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A96))</f>
         <v>epsh:P96</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G96" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R96" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A97))</f>
         <v>epsh:P97</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G97" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="H97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R97" s="0" t="s">
-        <v>152</v>
+        <v>121</v>
+      </c>
+      <c r="M97" s="0" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="99" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="20" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="T99" s="21"/>
     </row>
@@ -3337,19 +3420,22 @@
         <v>epsh:P100</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H100" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L100" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M100" s="0" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,19 +3444,22 @@
         <v>epsh:P101</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H101" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L101" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R101" s="2" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,91 +3468,61 @@
         <v>epsh:P102</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G102" s="1" t="n">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M102" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A103))</f>
-        <v>epsh:P103</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G103" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L103" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M103" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A104))</f>
-        <v>epsh:P104</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L104" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M104" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="106" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="T106" s="21"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="T105" s="21"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A106))</f>
+        <v>epsh:P106</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M106" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A107))</f>
         <v>epsh:P107</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>187</v>
+      <c r="B107" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D107" s="1" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="G107" s="1" t="n">
         <v>1</v>
@@ -3472,7 +3531,10 @@
         <v>1</v>
       </c>
       <c r="L107" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R107" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,22 +3543,19 @@
         <v>epsh:P108</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D108" s="1" t="n">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="G108" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H108" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L108" s="0" t="s">
-        <v>43</v>
+        <v>121</v>
+      </c>
+      <c r="M108" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,47 +3564,38 @@
         <v>epsh:P109</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D109" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="112" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="T112" s="21"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A113))</f>
-        <v>epsh:P113</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L113" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M113" s="0" t="s">
-        <v>112</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M109" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A110))</f>
+        <v>epsh:P110</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="T113" s="21"/>
     </row>
     <row r="114" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="str">
@@ -3553,40 +3603,40 @@
         <v>epsh:P114</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L114" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R114" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="M114" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A115))</f>
         <v>epsh:P115</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>192</v>
+      <c r="B115" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L115" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M115" s="0" t="s">
-        <v>121</v>
+        <v>45</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,99 +3645,28 @@
         <v>epsh:P116</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="G116" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="L116" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A117))</f>
-        <v>epsh:P117</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="120" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="T120" s="21"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A121))</f>
-        <v>epsh:P121</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G121" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L121" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M121" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A122))</f>
-        <v>epsh:P122</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L122" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R122" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A123))</f>
-        <v>epsh:P123</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G123" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L123" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="M123" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/"/>
@@ -3698,31 +3677,22 @@
     <hyperlink ref="C7" r:id="rId6" display="http://data.europa.eu/eli/eli-draft-legislation-ontology#"/>
     <hyperlink ref="E12" r:id="rId7" display="sh:name@en"/>
     <hyperlink ref="R19" r:id="rId8" display="&quot;^http://data.europarl.europa.eu/authority/legislative-process-type/.*$&quot;"/>
-    <hyperlink ref="R20" r:id="rId9" display="&quot;^http://data.europarl.europa.eu/authority/legislative-act-type/.*$&quot;"/>
-    <hyperlink ref="R21" r:id="rId10" display="&quot;^http://data.europarl.europa.eu/authority/activity-stage/.*$&quot;"/>
-    <hyperlink ref="R22" r:id="rId11" display="&quot;^http://data.europarl.europa.eu/authority/activity-stage/.*$&quot;"/>
-    <hyperlink ref="R24" r:id="rId12" display="&quot;^http://data.europarl.europa.eu/authority/legislative-process-status/.*$&quot;"/>
-    <hyperlink ref="R31" r:id="rId13" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/.*$&quot;"/>
-    <hyperlink ref="R34" r:id="rId14" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
-    <hyperlink ref="R37" r:id="rId15" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/.*$&quot;"/>
-    <hyperlink ref="R38" r:id="rId16" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/.*$&quot;"/>
-    <hyperlink ref="R39" r:id="rId17" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/.*$&quot;"/>
-    <hyperlink ref="R44" r:id="rId18" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
-    <hyperlink ref="R51" r:id="rId19" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
-    <hyperlink ref="R52" r:id="rId20" display="http://data.europarl.europa.eu/authority/activity-context-precision/.*$"/>
-    <hyperlink ref="R53" r:id="rId21" display="http://data.europarl.europa.eu/authority/nature/.*$"/>
-    <hyperlink ref="R54" r:id="rId22" display="http://data.europarl.europa.eu/authority/activity-stage/[0-9][0-9]-[0-9][0-9]"/>
-    <hyperlink ref="R55" r:id="rId23" display="http://data.europarl.europa.eu/authority/activity-status/.*$"/>
-    <hyperlink ref="R57" r:id="rId24" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*$"/>
-    <hyperlink ref="R58" r:id="rId25" display="&quot;^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*$"/>
-    <hyperlink ref="R67" r:id="rId26" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
-    <hyperlink ref="R73" r:id="rId27" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
-    <hyperlink ref="R81" r:id="rId28" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
-    <hyperlink ref="R88" r:id="rId29" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
-    <hyperlink ref="R94" r:id="rId30" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
-    <hyperlink ref="R101" r:id="rId31" display="&quot;^http://data.europarl.europa.eu/authority/vote-result/.*$&quot;"/>
-    <hyperlink ref="R114" r:id="rId32" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
-    <hyperlink ref="R122" r:id="rId33" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
+    <hyperlink ref="R21" r:id="rId9" display="&quot;^http://data.europarl.europa.eu/authority/activity-stage/.*$&quot;"/>
+    <hyperlink ref="R22" r:id="rId10" display="&quot;^http://data.europarl.europa.eu/authority/activity-stage/.*$&quot;"/>
+    <hyperlink ref="R24" r:id="rId11" display="&quot;^http://data.europarl.europa.eu/authority/legislative-process-status/.*$&quot;"/>
+    <hyperlink ref="R33" r:id="rId12" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
+    <hyperlink ref="R41" r:id="rId13" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
+    <hyperlink ref="R48" r:id="rId14" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
+    <hyperlink ref="R49" r:id="rId15" display="http://data.europarl.europa.eu/authority/activity-context-precision/.*$"/>
+    <hyperlink ref="R51" r:id="rId16" display="http://data.europarl.europa.eu/authority/activity-stage/[0-9][0-9]-[0-9][0-9]"/>
+    <hyperlink ref="R52" r:id="rId17" display="http://data.europarl.europa.eu/authority/activity-status/.*$"/>
+    <hyperlink ref="R60" r:id="rId18" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
+    <hyperlink ref="R66" r:id="rId19" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
+    <hyperlink ref="R74" r:id="rId20" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
+    <hyperlink ref="R81" r:id="rId21" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
+    <hyperlink ref="R87" r:id="rId22" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
+    <hyperlink ref="R107" r:id="rId23" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
+    <hyperlink ref="R115" r:id="rId24" display="http://data.europarl.europa.eu/authority/activity-type/.*$"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Subtask5/03-eli-dl-ap-ep-activities/04-SHACL/Activity-Shapes.xlsx
+++ b/Subtask5/03-eli-dl-ap-ep-activities/04-SHACL/Activity-Shapes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="205">
   <si>
     <t xml:space="preserve">Shapes URI</t>
   </si>
@@ -618,9 +618,6 @@
 )</t>
   </si>
   <si>
-    <t xml:space="preserve">eli-dl:hasActivityParticipation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Constraints on app-rapporteur</t>
   </si>
   <si>
@@ -648,7 +645,7 @@
     <t xml:space="preserve">Constraints on CommitteeVote</t>
   </si>
   <si>
-    <t xml:space="preserve">elidl-ep:activityHasVoteResult</t>
+    <t xml:space="preserve">elidl-ep:activityHasVoteResults</t>
   </si>
   <si>
     <t xml:space="preserve">eli-dl:created_a_realization_of</t>
@@ -706,7 +703,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -793,11 +790,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -862,7 +854,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -963,14 +955,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,10 +1036,10 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="B115 E21"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.59"/>
@@ -1706,12 +1690,12 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="12" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="12" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B115" activeCellId="0" sqref="B115"/>
+      <selection pane="bottomLeft" activeCell="B90" activeCellId="0" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
@@ -2371,7 +2355,7 @@
       <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="16" t="s">
         <v>155</v>
       </c>
       <c r="L29" s="0" t="s">
@@ -2484,7 +2468,7 @@
       <c r="C36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="16" t="s">
         <v>162</v>
       </c>
       <c r="L36" s="0" t="s">
@@ -2793,7 +2777,7 @@
         <v>epsh:P55</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>53</v>
@@ -2810,7 +2794,7 @@
     </row>
     <row r="57" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T57" s="21"/>
     </row>
@@ -2820,7 +2804,7 @@
         <v>epsh:P58</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>61</v>
@@ -2912,7 +2896,7 @@
     </row>
     <row r="64" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T64" s="21"/>
     </row>
@@ -2988,7 +2972,7 @@
         <v>epsh:P68</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>58</v>
@@ -3003,7 +2987,7 @@
         <v>epsh:P69</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>58</v>
@@ -3020,7 +3004,7 @@
     </row>
     <row r="72" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T72" s="21"/>
     </row>
@@ -3093,7 +3077,7 @@
         <v>epsh:P76</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>63</v>
@@ -3114,7 +3098,7 @@
         <v>epsh:P77</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>63</v>
@@ -3125,7 +3109,7 @@
     </row>
     <row r="79" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T79" s="21"/>
     </row>
@@ -3194,7 +3178,7 @@
     </row>
     <row r="85" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T85" s="21"/>
     </row>
@@ -3264,7 +3248,7 @@
         <v>epsh:P89</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>67</v>
@@ -3285,7 +3269,7 @@
         <v>epsh:P90</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>67</v>
@@ -3299,7 +3283,7 @@
     </row>
     <row r="92" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T92" s="21"/>
     </row>
@@ -3309,7 +3293,7 @@
         <v>epsh:P93</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>69</v>
@@ -3330,7 +3314,7 @@
         <v>epsh:P94</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>69</v>
@@ -3341,8 +3325,8 @@
       <c r="L94" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="R94" s="26" t="s">
-        <v>194</v>
+      <c r="R94" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,7 +3335,7 @@
         <v>epsh:P95</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>69</v>
@@ -3363,7 +3347,7 @@
         <v>121</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,7 +3356,7 @@
         <v>epsh:P96</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>69</v>
@@ -3384,7 +3368,7 @@
         <v>121</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,7 +3377,7 @@
         <v>epsh:P97</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>69</v>
@@ -3405,12 +3389,12 @@
         <v>121</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T99" s="21"/>
     </row>
@@ -3420,7 +3404,7 @@
         <v>epsh:P100</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>56</v>
@@ -3444,7 +3428,7 @@
         <v>epsh:P101</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>56</v>
@@ -3468,7 +3452,7 @@
         <v>epsh:P102</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>56</v>
@@ -3485,7 +3469,7 @@
     </row>
     <row r="105" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T105" s="21"/>
     </row>
@@ -3543,7 +3527,7 @@
         <v>epsh:P108</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>71</v>
@@ -3593,7 +3577,7 @@
     </row>
     <row r="113" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T113" s="21"/>
     </row>
